--- a/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
   <si>
     <t>Serie</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7502,6 +7505,35 @@
         <v>1193</v>
       </c>
     </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223">
+        <v>1265</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1265</v>
+      </c>
+      <c r="G223">
+        <v>12</v>
+      </c>
+      <c r="H223">
+        <v>88</v>
+      </c>
+      <c r="I223">
+        <v>1165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -704,6 +704,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7534,6 +7537,35 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224">
+        <v>1267</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1267</v>
+      </c>
+      <c r="G224">
+        <v>12</v>
+      </c>
+      <c r="H224">
+        <v>88</v>
+      </c>
+      <c r="I224">
+        <v>1167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
   <si>
     <t>Serie</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7566,6 +7569,35 @@
         <v>1167</v>
       </c>
     </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225">
+        <v>3643</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>3643</v>
+      </c>
+      <c r="G225">
+        <v>11</v>
+      </c>
+      <c r="H225">
+        <v>87</v>
+      </c>
+      <c r="I225">
+        <v>3545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
+++ b/8/4/2/Banco Central de Chile 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7598,6 +7601,35 @@
         <v>3545</v>
       </c>
     </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226">
+        <v>3604</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>3604</v>
+      </c>
+      <c r="G226">
+        <v>10</v>
+      </c>
+      <c r="H226">
+        <v>87</v>
+      </c>
+      <c r="I226">
+        <v>3506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
